--- a/August'21/01.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/01.08.2021/Daily Sales Info August-2021.xlsx
@@ -12961,9 +12961,9 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13058,7 +13058,7 @@
         <v>427128</v>
       </c>
       <c r="E4" s="2">
-        <v>1725</v>
+        <v>1625</v>
       </c>
       <c r="F4" s="2">
         <v>8900</v>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
@@ -15928,7 +15928,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -16300,7 +16300,7 @@
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
@@ -17478,7 +17478,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
@@ -19028,7 +19028,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -19400,7 +19400,7 @@
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -20950,7 +20950,7 @@
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
@@ -22128,7 +22128,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -22500,7 +22500,7 @@
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
@@ -23678,7 +23678,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -24050,7 +24050,7 @@
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
@@ -25228,7 +25228,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -25600,7 +25600,7 @@
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
@@ -26778,7 +26778,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -27150,7 +27150,7 @@
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
@@ -28328,7 +28328,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -28700,7 +28700,7 @@
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
@@ -29878,7 +29878,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -30250,7 +30250,7 @@
       </c>
       <c r="E4" s="2">
         <f>'1'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'1'!F29</f>
@@ -31428,7 +31428,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -31800,7 +31800,7 @@
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
@@ -32978,7 +32978,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -33350,7 +33350,7 @@
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
@@ -34528,7 +34528,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -34900,7 +34900,7 @@
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
@@ -36078,7 +36078,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -36450,7 +36450,7 @@
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
@@ -37628,7 +37628,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -38000,7 +38000,7 @@
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
@@ -39178,7 +39178,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -39550,7 +39550,7 @@
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
@@ -40728,7 +40728,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -41100,7 +41100,7 @@
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
@@ -42278,7 +42278,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -42650,7 +42650,7 @@
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
@@ -43828,7 +43828,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -44200,7 +44200,7 @@
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
@@ -45378,7 +45378,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -45750,7 +45750,7 @@
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
@@ -46928,7 +46928,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -47300,7 +47300,7 @@
       </c>
       <c r="E4" s="2">
         <f>'2'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'2'!F29</f>
@@ -48478,7 +48478,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -48850,7 +48850,7 @@
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -50400,7 +50400,7 @@
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
@@ -51578,7 +51578,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -51947,7 +51947,7 @@
       </c>
       <c r="E4" s="2">
         <f>'1'!E4</f>
-        <v>1725</v>
+        <v>1625</v>
       </c>
       <c r="F4" s="2">
         <f>'1'!F4</f>
@@ -53782,7 +53782,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -54150,7 +54150,7 @@
       </c>
       <c r="E4" s="2">
         <f>'3'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'3'!F29</f>
@@ -55328,7 +55328,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -55700,7 +55700,7 @@
       </c>
       <c r="E4" s="2">
         <f>'4'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'4'!F29</f>
@@ -56881,7 +56881,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -57253,7 +57253,7 @@
       </c>
       <c r="E4" s="2">
         <f>'5'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'5'!F29</f>
@@ -58431,7 +58431,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -58803,7 +58803,7 @@
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'6'!F29</f>
@@ -59981,7 +59981,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -60353,7 +60353,7 @@
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'7'!F29</f>
@@ -61531,7 +61531,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -61903,7 +61903,7 @@
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'8'!F29</f>
@@ -63081,7 +63081,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
